--- a/requirement/requirement.xlsx
+++ b/requirement/requirement.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhruv\School management\school-management\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C52FC9-941A-4333-B7D8-A589B07889B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF119C7-50AC-4347-B8CA-F898ADDF18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirement" sheetId="1" r:id="rId1"/>
+    <sheet name="Admin Modules" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>Requiremenmts</t>
   </si>
@@ -73,14 +74,534 @@
   </si>
   <si>
     <t>userId(to map user for allloting vehicle)</t>
+  </si>
+  <si>
+    <t>As a Admin Dashboard</t>
+  </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>1. Total Income this Year</t>
+  </si>
+  <si>
+    <t>2. Total Income this month</t>
+  </si>
+  <si>
+    <t>3. Income Today</t>
+  </si>
+  <si>
+    <t>4. Total Expense this Year</t>
+  </si>
+  <si>
+    <t>5. Total Expense this month</t>
+  </si>
+  <si>
+    <t>6. Expense today</t>
+  </si>
+  <si>
+    <t>7. Total Students(Boys, Girls)</t>
+  </si>
+  <si>
+    <t>8. Total Parents</t>
+  </si>
+  <si>
+    <t>9. Staff(Present, Absent)</t>
+  </si>
+  <si>
+    <t>10.Present Students today(Att. percentage)</t>
+  </si>
+  <si>
+    <t>Dashboard Screen</t>
+  </si>
+  <si>
+    <t>Admission Management</t>
+  </si>
+  <si>
+    <t>1.A: Directly add student by filling all the details</t>
+  </si>
+  <si>
+    <t>Fields:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Student Information:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Name, Gender, DOB, Photo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Parent Info:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Father Name, Father ID Card, Father email, Father Phone, Mother/Alternate Phone, Religion, Address</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Academic Info:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Student Id, Campus, Class, section, previous school, admission date</t>
+    </r>
+  </si>
+  <si>
+    <t>Add bulk student by uploading csv or excel sheet</t>
+  </si>
+  <si>
+    <t>2.1.  Admit Student</t>
+  </si>
+  <si>
+    <t>2.2.  Admit Bulk Student</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Other Info:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Monthly fee, Discounted Student(yes/no), Transport route, Create Parent Account(yes/no)</t>
+    </r>
+  </si>
+  <si>
+    <t>Class(dropdown), Section(DropDown)</t>
+  </si>
+  <si>
+    <t>upload (excel, csv)</t>
+  </si>
+  <si>
+    <t>create parent account(yes/no): not mendatory</t>
+  </si>
+  <si>
+    <t>download sample file</t>
+  </si>
+  <si>
+    <t>2.3. Admission request</t>
+  </si>
+  <si>
+    <t>If we get request from website, so admin has access to take action on it. By clicking on admission request we get request list with some fields</t>
+  </si>
+  <si>
+    <t>2.4. Admission Enquiries</t>
+  </si>
+  <si>
+    <t>By clicking on it we get list of enquiries, on which admin can take action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id, Name, Parent Name, dob, Gender, phone, enquiry date, Admit(clicking button), Send sms(clickable button), action </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admit button:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by clicking on admit button profile page will be open by autofilling of fields, wjhatever we took in enquiry time and rest will be fill by admin</t>
+    </r>
+  </si>
+  <si>
+    <t>2.5 Print Admission Form</t>
+  </si>
+  <si>
+    <t>By clicking on this we will print admission form</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter Fields:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Campus(drop down), class(dropdown), section(dropdown), select range(dropdown)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In Campus:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all the campus list</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In range:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All student, Individual Student name </t>
+    </r>
+  </si>
+  <si>
+    <t>Student Management</t>
+  </si>
+  <si>
+    <t>3.1. Student Information</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filter:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Campus, Class, Section, Type(dropdown)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Type:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Active, Inactive</t>
+    </r>
+  </si>
+  <si>
+    <t>By clicking on filters we get the list of student with following fields</t>
+  </si>
+  <si>
+    <t>we have option for: generate excel, csv, pdf, print</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fields:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> studentId, photo, name, parentName, class, section, parentPhone, action(generate Id card, reset password, view profile, delete, inactive/active, edit)</t>
+    </r>
+  </si>
+  <si>
+    <t>3.2. Promote Student</t>
+  </si>
+  <si>
+    <t>This field is use to promote student from one class to another class</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fields:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Campus(dropdown), Promotion from class(dropdown), section(dropdown), Promotion to class(dropdown), section(dropdown)</t>
+    </r>
+  </si>
+  <si>
+    <t>3.3. Student Birthday</t>
+  </si>
+  <si>
+    <t>This is use to generate or print birthday card, which will reflect on parents and student dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It has option to generate bulk or single pdf and print for student or student list </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fields:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> studentId, picture, name, parent name, class, sec, wish card(template), Click to wish(by clicking wish send to parents)</t>
+    </r>
+  </si>
+  <si>
+    <t>3.4 Student Transfer</t>
+  </si>
+  <si>
+    <t>This is use to transfer student from one campus to another campus</t>
+  </si>
+  <si>
+    <t>Fields: From Campus(dropdown). To Campus(dropdown), class, studentId, Also moves dues(yes/no),  Notify Parents(yes/No)</t>
+  </si>
+  <si>
+    <t>Parent Account</t>
+  </si>
+  <si>
+    <t>4.1 Manage Accounts</t>
+  </si>
+  <si>
+    <t>This is use to manage parents account which is visble to parents login, their student attachment, detachment from that, password reset, and many actions taken by admin</t>
+  </si>
+  <si>
+    <t>It has excel, csv, pdf, print option for the list</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fields:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> parentId, name, email, phone, ID card number, profession, childs(clickable button), reset password(button), action</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">By Clicking on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Childs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, there is pop up open with containing fields, and it has childs list linked with parents</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Childs:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> studentId, photo, name, class, campus, action(disconected option)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -108,12 +629,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,9 +921,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -411,7 +938,7 @@
     <col min="9" max="9" width="33.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,23 +946,13 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -458,12 +975,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -498,4 +1015,366 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF89778-C23C-4F4F-8031-DAA6A5F6FE5E}">
+  <dimension ref="A1:C75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="44.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>4</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/requirement/requirement.xlsx
+++ b/requirement/requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhruv\School management\school-management\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AF119C7-50AC-4347-B8CA-F898ADDF18A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480E0AA-8138-4485-8CD6-0595538ACD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Requiremenmts</t>
   </si>
@@ -586,6 +586,24 @@
       </rPr>
       <t xml:space="preserve"> studentId, photo, name, class, campus, action(disconected option)</t>
     </r>
+  </si>
+  <si>
+    <t>Hostel Module</t>
+  </si>
+  <si>
+    <t>Block/building</t>
+  </si>
+  <si>
+    <t>Room No.</t>
+  </si>
+  <si>
+    <t>Room type(dropdown)</t>
+  </si>
+  <si>
+    <t>No.of beds</t>
+  </si>
+  <si>
+    <t>userId(to map student to whom room alloted)</t>
   </si>
 </sst>
 </file>
@@ -631,15 +649,15 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,16 +957,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -976,7 +994,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1007,6 +1025,34 @@
       </c>
       <c r="I7" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF89778-C23C-4F4F-8031-DAA6A5F6FE5E}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
@@ -1032,24 +1078,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1104,15 +1150,15 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1122,7 +1168,7 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1147,7 +1193,7 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1157,7 +1203,7 @@
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1182,20 +1228,20 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="3"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1205,7 +1251,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1220,7 +1266,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1245,15 +1291,15 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>3</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="1" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1283,7 +1329,7 @@
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1298,7 +1344,7 @@
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1318,7 +1364,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="1" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1333,20 +1379,20 @@
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <v>4</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>74</v>
       </c>
     </row>

--- a/requirement/requirement.xlsx
+++ b/requirement/requirement.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhruv\School management\school-management\requirement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4480E0AA-8138-4485-8CD6-0595538ACD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73C689C-F3B1-4567-B08C-B86FD39EB745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
     <sheet name="Admin Modules" sheetId="2" r:id="rId2"/>
+    <sheet name="Branches" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>Requiremenmts</t>
   </si>
@@ -604,6 +605,177 @@
   </si>
   <si>
     <t>userId(to map student to whom room alloted)</t>
+  </si>
+  <si>
+    <t>1. Admin</t>
+  </si>
+  <si>
+    <t>1.1 Parents</t>
+  </si>
+  <si>
+    <t>1.2 Teachers</t>
+  </si>
+  <si>
+    <t>1.3 Students</t>
+  </si>
+  <si>
+    <t>1.4 Working Staff</t>
+  </si>
+  <si>
+    <t>1.1.1 Childrens</t>
+  </si>
+  <si>
+    <t>1.3.1 Time Table</t>
+  </si>
+  <si>
+    <t>1.3.2 Events</t>
+  </si>
+  <si>
+    <t>1.2.1 Classes assigned</t>
+  </si>
+  <si>
+    <t>1.2.2 Subjects assigned</t>
+  </si>
+  <si>
+    <t>1.2.3 Time table</t>
+  </si>
+  <si>
+    <t>1.2.4 Events</t>
+  </si>
+  <si>
+    <t>1.2.5 Notification(if any send by principal)</t>
+  </si>
+  <si>
+    <t>1.1.2 Teacher assigned to students class</t>
+  </si>
+  <si>
+    <t>1.1.3 Time table</t>
+  </si>
+  <si>
+    <t>1.1.4 Subjects assigned</t>
+  </si>
+  <si>
+    <t>1.1.5 Events</t>
+  </si>
+  <si>
+    <t>1.1.6 Notification</t>
+  </si>
+  <si>
+    <t>1.1.7 fees</t>
+  </si>
+  <si>
+    <t>1.3.3 Notification</t>
+  </si>
+  <si>
+    <t>1.3.4 Subjects</t>
+  </si>
+  <si>
+    <t>1.3.5 Fees</t>
+  </si>
+  <si>
+    <t>1.5 Departments</t>
+  </si>
+  <si>
+    <t>1.6 Hostel</t>
+  </si>
+  <si>
+    <t>1.7 Transportation</t>
+  </si>
+  <si>
+    <t>1.8 Accounts</t>
+  </si>
+  <si>
+    <t>1.9 Subjects</t>
+  </si>
+  <si>
+    <t>1.10 Class</t>
+  </si>
+  <si>
+    <t>1.11 Holidays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12 Fees </t>
+  </si>
+  <si>
+    <t>1.13 Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.14 Exam </t>
+  </si>
+  <si>
+    <t>1.15 Time Table</t>
+  </si>
+  <si>
+    <t>1.16 Events</t>
+  </si>
+  <si>
+    <t>1.17 Printing</t>
+  </si>
+  <si>
+    <t>1.18 Blog</t>
+  </si>
+  <si>
+    <t>1.2.6 Attendance</t>
+  </si>
+  <si>
+    <t>1.3.6 Attendance</t>
+  </si>
+  <si>
+    <t>1.1.8 Attendance</t>
+  </si>
+  <si>
+    <t>1.19 Notice</t>
+  </si>
+  <si>
+    <t>1.20 Message</t>
+  </si>
+  <si>
+    <t>1.1.9 Profile(self, childrens)</t>
+  </si>
+  <si>
+    <t>1.3.7 Self Profile</t>
+  </si>
+  <si>
+    <t>1.3.8 Exams, Exam result</t>
+  </si>
+  <si>
+    <t>1.1.10 Exam, Exam result</t>
+  </si>
+  <si>
+    <t>1.2.7 Salary</t>
+  </si>
+  <si>
+    <t>1.2.8 Exams</t>
+  </si>
+  <si>
+    <t>1.4.1 Salary</t>
+  </si>
+  <si>
+    <t>1.4.2 Notification</t>
+  </si>
+  <si>
+    <t>1.6.1 Room alloting</t>
+  </si>
+  <si>
+    <t>1.6.2 Total student</t>
+  </si>
+  <si>
+    <t>1.6.3 Fees Paid or unpaid</t>
+  </si>
+  <si>
+    <t>1.6.4 Query module</t>
+  </si>
+  <si>
+    <t>1.3.9 Query raise against hostel</t>
+  </si>
+  <si>
+    <t>1.8.1 Slary of staff</t>
+  </si>
+  <si>
+    <t>1.8.2 Fees of student</t>
+  </si>
+  <si>
+    <t>1.8.3 Expenses</t>
   </si>
 </sst>
 </file>
@@ -941,7 +1113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
@@ -1423,4 +1595,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA302E6-A7D2-4147-907D-75705999803A}">
+  <dimension ref="A1:U11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="A1:U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L1" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" t="s">
+        <v>114</v>
+      </c>
+      <c r="N1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O1" t="s">
+        <v>116</v>
+      </c>
+      <c r="P1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>118</v>
+      </c>
+      <c r="R1" t="s">
+        <v>119</v>
+      </c>
+      <c r="S1" t="s">
+        <v>120</v>
+      </c>
+      <c r="T1" t="s">
+        <v>124</v>
+      </c>
+      <c r="U1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+      <c r="I2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>